--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gast-Cckbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gast-Cckbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Gast</t>
   </si>
   <si>
     <t>Cckbr</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.914804</v>
+        <v>0.806708</v>
       </c>
       <c r="H2">
-        <v>5.744412000000001</v>
+        <v>2.420124</v>
       </c>
       <c r="I2">
-        <v>0.6072071931133437</v>
+        <v>0.3478655588626643</v>
       </c>
       <c r="J2">
-        <v>0.6072071931133436</v>
+        <v>0.3478655588626643</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,16 +564,16 @@
         <v>0.8154076983085706</v>
       </c>
       <c r="Q2">
-        <v>0.2348347539</v>
+        <v>0.09893601363333333</v>
       </c>
       <c r="R2">
-        <v>2.1135127851</v>
+        <v>0.8904241226999999</v>
       </c>
       <c r="S2">
-        <v>0.4951214197329594</v>
+        <v>0.2836522546730297</v>
       </c>
       <c r="T2">
-        <v>0.4951214197329593</v>
+        <v>0.2836522546730297</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.914804</v>
+        <v>0.806708</v>
       </c>
       <c r="H3">
-        <v>5.744412000000001</v>
+        <v>2.420124</v>
       </c>
       <c r="I3">
-        <v>0.6072071931133437</v>
+        <v>0.3478655588626643</v>
       </c>
       <c r="J3">
-        <v>0.6072071931133436</v>
+        <v>0.3478655588626643</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02776366666666666</v>
+        <v>0.02776366666666667</v>
       </c>
       <c r="N3">
-        <v>0.08329099999999999</v>
+        <v>0.083291</v>
       </c>
       <c r="O3">
-        <v>0.1845923016914293</v>
+        <v>0.1845923016914294</v>
       </c>
       <c r="P3">
-        <v>0.1845923016914293</v>
+        <v>0.1845923016914294</v>
       </c>
       <c r="Q3">
-        <v>0.053161979988</v>
+        <v>0.02239717200933334</v>
       </c>
       <c r="R3">
-        <v>0.478457819892</v>
+        <v>0.201574548084</v>
       </c>
       <c r="S3">
-        <v>0.1120857733803843</v>
+        <v>0.06421330418963463</v>
       </c>
       <c r="T3">
-        <v>0.1120857733803843</v>
+        <v>0.06421330418963463</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +643,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,10 +664,10 @@
         <v>3.71597</v>
       </c>
       <c r="I4">
-        <v>0.3927928068866564</v>
+        <v>0.534128821815285</v>
       </c>
       <c r="J4">
-        <v>0.3927928068866564</v>
+        <v>0.5341288218152851</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -694,10 +694,10 @@
         <v>1.36719826225</v>
       </c>
       <c r="S4">
-        <v>0.3202862785756114</v>
+        <v>0.4355327531966702</v>
       </c>
       <c r="T4">
-        <v>0.3202862785756113</v>
+        <v>0.4355327531966703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,10 +726,10 @@
         <v>3.71597</v>
       </c>
       <c r="I5">
-        <v>0.3927928068866564</v>
+        <v>0.534128821815285</v>
       </c>
       <c r="J5">
-        <v>0.3927928068866564</v>
+        <v>0.5341288218152851</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02776366666666666</v>
+        <v>0.02776366666666667</v>
       </c>
       <c r="N5">
-        <v>0.08329099999999999</v>
+        <v>0.083291</v>
       </c>
       <c r="O5">
-        <v>0.1845923016914293</v>
+        <v>0.1845923016914294</v>
       </c>
       <c r="P5">
-        <v>0.1845923016914293</v>
+        <v>0.1845923016914294</v>
       </c>
       <c r="Q5">
         <v>0.03438965080777778</v>
       </c>
       <c r="R5">
-        <v>0.3095068572699999</v>
+        <v>0.30950685727</v>
       </c>
       <c r="S5">
-        <v>0.07250652831104502</v>
+        <v>0.09859606861861482</v>
       </c>
       <c r="T5">
-        <v>0.07250652831104501</v>
+        <v>0.09859606861861485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2736576666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.820973</v>
+      </c>
+      <c r="I6">
+        <v>0.1180056193220505</v>
+      </c>
+      <c r="J6">
+        <v>0.1180056193220505</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1226416666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.367925</v>
+      </c>
+      <c r="O6">
+        <v>0.8154076983085706</v>
+      </c>
+      <c r="P6">
+        <v>0.8154076983085706</v>
+      </c>
+      <c r="Q6">
+        <v>0.0335618323361111</v>
+      </c>
+      <c r="R6">
+        <v>0.302056491025</v>
+      </c>
+      <c r="S6">
+        <v>0.09622269043887056</v>
+      </c>
+      <c r="T6">
+        <v>0.09622269043887059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2736576666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.820973</v>
+      </c>
+      <c r="I7">
+        <v>0.1180056193220505</v>
+      </c>
+      <c r="J7">
+        <v>0.1180056193220505</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.02776366666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.083291</v>
+      </c>
+      <c r="O7">
+        <v>0.1845923016914294</v>
+      </c>
+      <c r="P7">
+        <v>0.1845923016914294</v>
+      </c>
+      <c r="Q7">
+        <v>0.007597740238111111</v>
+      </c>
+      <c r="R7">
+        <v>0.06837966214299999</v>
+      </c>
+      <c r="S7">
+        <v>0.02178292888317991</v>
+      </c>
+      <c r="T7">
+        <v>0.02178292888317992</v>
       </c>
     </row>
   </sheetData>
